--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_20.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>88621.37851299628</v>
+        <v>96679.21610331273</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8358767.937462306</v>
+        <v>8358767.937462307</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335.3138620892177</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>104.5113366705979</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -753,10 +753,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -795,7 +795,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>232.800587149425</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755695</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -835,10 +835,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>335.3138620892173</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>339.5091118684755</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1026,7 +1026,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U6" t="n">
         <v>225.8879277888686</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>37.83808333974875</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.39108932486009</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>297.5642569908811</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,7 +1227,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
         <v>61.42221998250818</v>
@@ -1260,7 +1260,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T9" t="n">
         <v>196.8897623984489</v>
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>153.055538822593</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>280.1033070984085</v>
       </c>
       <c r="H11" t="n">
-        <v>103.8476741259863</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1424,16 +1424,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1528,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>41.75100837039711</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -1546,7 +1546,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>52.10844059186253</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1610,16 +1610,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>376.184863643924</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>269.513456948084</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1704,7 +1704,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1765,16 +1765,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>41.75100837039711</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
@@ -1783,7 +1783,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>52.10844059186253</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>339.0399185806814</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1989,7 +1989,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2053,16 +2053,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>129.0246247964035</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>18.3189431938602</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2096,7 +2096,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,22 +2126,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>6.652676009751512</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>190.2713935802968</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2321,16 +2321,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>321.7064610691125</v>
       </c>
       <c r="G23" t="n">
-        <v>323.9918595228957</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>190.2713935802968</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>155.2114886365808</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>269.513456948084</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,19 +2600,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>4.55385834063818</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,22 +2792,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2846,16 +2846,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>221.002178698296</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>74.73733032172139</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>17.5292602596909</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>50.28788303971726</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3187,10 +3187,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>28.10115714452299</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>4.553842565068125</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>53.06513659042616</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>123.5492650282471</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,13 +3311,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>4.553842565068801</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>190.271393580297</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3512,10 +3512,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>280.1033070984085</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>294.1602297043712</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>323.9918595228957</v>
+        <v>269.5134569480835</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3949,16 +3949,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="U43" t="n">
-        <v>128.7835007017902</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>323.9918595228957</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,25 +4022,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>236.0499720120683</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4189,10 +4189,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>128.7835007017902</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>94.6392697836404</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207.4089578252748</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4358,10 +4358,10 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
         <v>1662.48357412947</v>
@@ -4370,10 +4370,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982761</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.1098286224644</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4398,46 +4398,46 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323009</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>207.4089578252748</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C5" t="n">
-        <v>207.4089578252748</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>207.4089578252748</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>207.4089578252748</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>207.4089578252748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982757</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y5" t="n">
-        <v>546.109828622464</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4650,10 +4650,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4674,19 +4674,19 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>92.16326802213086</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>92.16326802213086</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>534.603677789272</v>
+        <v>1878.515311311824</v>
       </c>
       <c r="C8" t="n">
-        <v>534.603677789272</v>
+        <v>1509.552794371412</v>
       </c>
       <c r="D8" t="n">
-        <v>534.603677789272</v>
+        <v>1151.287095764662</v>
       </c>
       <c r="E8" t="n">
-        <v>534.603677789272</v>
+        <v>765.4988431664176</v>
       </c>
       <c r="F8" t="n">
-        <v>534.603677789272</v>
+        <v>354.51293837681</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982757</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y8" t="n">
-        <v>546.109828622464</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4884,19 +4884,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4908,16 +4908,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064344</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816297</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>208.54453618662</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1313.879478346266</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C11" t="n">
-        <v>1313.879478346266</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="D11" t="n">
-        <v>955.6137797395156</v>
+        <v>1133.649772640952</v>
       </c>
       <c r="E11" t="n">
-        <v>569.8255271412713</v>
+        <v>747.861520042708</v>
       </c>
       <c r="F11" t="n">
-        <v>158.8396223516638</v>
+        <v>336.8756152531004</v>
       </c>
       <c r="G11" t="n">
-        <v>158.8396223516638</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V11" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W11" t="n">
-        <v>2090.6186503862</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X11" t="n">
-        <v>2090.6186503862</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y11" t="n">
-        <v>1700.479318410388</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="12">
@@ -5115,7 +5115,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
@@ -5124,10 +5124,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
         <v>1748.695370517453</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064342</v>
+        <v>559.1928012785274</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064342</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="E13" t="n">
-        <v>580.2158906240411</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F13" t="n">
-        <v>433.3259431261307</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G13" t="n">
-        <v>264.3261428644631</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H13" t="n">
-        <v>106.5777702969933</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5206,43 +5206,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1546.944160717209</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C14" t="n">
-        <v>1177.981643776797</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D14" t="n">
-        <v>819.715945170047</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E14" t="n">
-        <v>433.9276925718028</v>
+        <v>737.1647017090468</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>326.1787969194392</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5294,34 +5294,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X14" t="n">
-        <v>2323.683332757143</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y14" t="n">
-        <v>1933.544000781331</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
         <v>665.1105362747051</v>
@@ -5352,46 +5352,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>368.8844281164663</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>773.5003462121382</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1297.647259770169</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1851.37379586972</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2291.509718890064</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P15" t="n">
-        <v>2627.754532504893</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064342</v>
+        <v>559.1928012785274</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064342</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="E16" t="n">
-        <v>580.2158906240411</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F16" t="n">
-        <v>433.3259431261307</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G16" t="n">
-        <v>264.3261428644631</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H16" t="n">
-        <v>106.5777702969933</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5443,43 +5443,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1920.409918978289</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C17" t="n">
-        <v>1551.447402037877</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D17" t="n">
-        <v>1193.181703431127</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E17" t="n">
-        <v>807.3934508328825</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F17" t="n">
-        <v>396.407546043275</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036445</v>
@@ -5531,10 +5531,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
         <v>2697.149091018222</v>
@@ -5555,10 +5555,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>2697.149091018222</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y17" t="n">
-        <v>2307.009759042411</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
         <v>2525.076107152626</v>
@@ -5631,10 +5631,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5677,37 +5677,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>597.8010803716834</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U19" t="n">
-        <v>308.6274700262513</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
         <v>53.94298182036445</v>
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1645.450628940881</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C20" t="n">
-        <v>1626.94664591678</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D20" t="n">
-        <v>1268.68094731003</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5768,34 +5768,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U20" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V20" t="n">
-        <v>2388.358616186807</v>
+        <v>1986.826586715716</v>
       </c>
       <c r="W20" t="n">
-        <v>2035.589960916693</v>
+        <v>1986.826586715716</v>
       </c>
       <c r="X20" t="n">
-        <v>2035.589960916693</v>
+        <v>1986.826586715716</v>
       </c>
       <c r="Y20" t="n">
-        <v>1645.450628940881</v>
+        <v>1596.687254739904</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>368.8844281164668</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>773.5003462121387</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1297.64725977017</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018222</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T22" t="n">
-        <v>2469.840903686824</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U22" t="n">
-        <v>2277.64757683804</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1546.94416071721</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C23" t="n">
-        <v>1177.981643776798</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D23" t="n">
-        <v>1177.981643776798</v>
+        <v>764.6872557005406</v>
       </c>
       <c r="E23" t="n">
-        <v>792.1933911785536</v>
+        <v>378.8990031022964</v>
       </c>
       <c r="F23" t="n">
-        <v>381.2074863889461</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036446</v>
@@ -5993,7 +5993,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6011,28 +6011,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X23" t="n">
-        <v>2323.683332757143</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y23" t="n">
-        <v>1933.544000781331</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="24">
@@ -6066,16 +6066,16 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6175,19 +6175,19 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T25" t="n">
-        <v>2469.840903686825</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U25" t="n">
-        <v>2277.64757683804</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V25" t="n">
-        <v>2022.963088632153</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W25" t="n">
-        <v>2022.963088632153</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X25" t="n">
-        <v>2022.963088632153</v>
+        <v>2179.742370083245</v>
       </c>
       <c r="Y25" t="n">
         <v>2022.963088632153</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1491.915471247703</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C26" t="n">
-        <v>1122.952954307291</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D26" t="n">
-        <v>1122.952954307291</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E26" t="n">
-        <v>737.1647017090468</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
-        <v>326.1787969194392</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533142</v>
@@ -6230,7 +6230,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6242,10 +6242,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
         <v>2642.120401548716</v>
@@ -6254,22 +6254,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U26" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V26" t="n">
-        <v>2642.120401548716</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W26" t="n">
-        <v>2642.120401548716</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X26" t="n">
-        <v>2268.654643287636</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y26" t="n">
-        <v>1878.515311311824</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
         <v>2525.076107152626</v>
@@ -6388,40 +6388,40 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U28" t="n">
-        <v>2567.064746875001</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V28" t="n">
-        <v>2312.380258669114</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="W28" t="n">
-        <v>2022.963088632153</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="X28" t="n">
         <v>2022.963088632153</v>
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1161.086123514381</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C29" t="n">
-        <v>792.1236065739693</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D29" t="n">
-        <v>792.1236065739693</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E29" t="n">
-        <v>792.1236065739693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6479,34 +6479,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018223</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="V29" t="n">
-        <v>2366.086203674652</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W29" t="n">
-        <v>2013.317548404538</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X29" t="n">
-        <v>1937.825295554314</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y29" t="n">
-        <v>1547.685963578503</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="30">
@@ -6537,10 +6537,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
         <v>309.190302261463</v>
@@ -6558,7 +6558,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>201.8560754027576</v>
+        <v>398.3338608103785</v>
       </c>
       <c r="C31" t="n">
-        <v>201.8560754027576</v>
+        <v>229.3976778824716</v>
       </c>
       <c r="D31" t="n">
-        <v>201.8560754027576</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>677.3331427521746</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S31" t="n">
-        <v>677.3331427521746</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T31" t="n">
-        <v>677.3331427521746</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U31" t="n">
-        <v>677.3331427521746</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V31" t="n">
-        <v>422.6486545462877</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W31" t="n">
-        <v>422.6486545462877</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X31" t="n">
-        <v>422.6486545462877</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y31" t="n">
-        <v>201.8560754027576</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="32">
@@ -6698,13 +6698,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6780,10 +6780,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M33" t="n">
         <v>1194.968834417902</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>728.1289842064344</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C34" t="n">
-        <v>559.1928012785276</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>409.0761618661918</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>409.0761618661918</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>409.0761618661918</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>240.0763616045242</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>82.32798903705435</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>2692.549250043407</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064344</v>
+        <v>2478.260826861569</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064344</v>
+        <v>2250.952639530171</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064344</v>
+        <v>2250.952639530171</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064344</v>
+        <v>2250.952639530171</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064344</v>
+        <v>2250.952639530171</v>
       </c>
       <c r="X34" t="n">
-        <v>728.1289842064344</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y34" t="n">
-        <v>728.1289842064344</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1273.280804219766</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C35" t="n">
-        <v>904.3182872793539</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="D35" t="n">
-        <v>904.3182872793539</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="E35" t="n">
-        <v>518.5300346811096</v>
+        <v>1161.155908118965</v>
       </c>
       <c r="F35" t="n">
-        <v>107.544129891502</v>
+        <v>750.1700033293578</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>332.2061952275446</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6959,28 +6959,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T35" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U35" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V35" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W35" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X35" t="n">
-        <v>2050.019976259699</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y35" t="n">
-        <v>1659.880644283887</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7099,40 +7099,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064344</v>
+        <v>723.5291432316174</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064344</v>
+        <v>509.2407200497801</v>
       </c>
       <c r="T37" t="n">
-        <v>500.8207968750362</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="U37" t="n">
-        <v>308.6274700262513</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V37" t="n">
-        <v>53.94298182036446</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036446</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X37" t="n">
         <v>53.94298182036446</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1584.923258067584</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C38" t="n">
-        <v>1215.960741127172</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="D38" t="n">
-        <v>857.6950425204218</v>
+        <v>1133.649772640952</v>
       </c>
       <c r="E38" t="n">
-        <v>471.9067899221776</v>
+        <v>747.861520042708</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>336.8756152531004</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036446</v>
@@ -7172,13 +7172,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7217,7 +7217,7 @@
         <v>2268.654643287636</v>
       </c>
       <c r="Y38" t="n">
-        <v>1971.523098131706</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="39">
@@ -7254,10 +7254,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M39" t="n">
         <v>1194.968834417902</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064344</v>
+        <v>2567.064746875001</v>
       </c>
       <c r="V40" t="n">
-        <v>473.4444960005476</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W40" t="n">
-        <v>184.027325963587</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.94416071721</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C41" t="n">
-        <v>1177.981643776798</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D41" t="n">
-        <v>1177.981643776798</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E41" t="n">
-        <v>792.1933911785536</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F41" t="n">
-        <v>381.2074863889461</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036446</v>
@@ -7412,49 +7412,49 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757143</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.544000781331</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036446</v>
@@ -7506,7 +7506,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7533,7 +7533,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="43">
@@ -7573,37 +7573,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064344</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U43" t="n">
-        <v>598.044640063212</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V43" t="n">
-        <v>343.3601518573251</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W43" t="n">
         <v>53.94298182036446</v>
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1546.94416071721</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C44" t="n">
-        <v>1177.981643776798</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D44" t="n">
-        <v>1177.981643776798</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E44" t="n">
-        <v>792.1933911785536</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F44" t="n">
-        <v>381.2074863889461</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036446</v>
@@ -7646,13 +7646,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7670,28 +7670,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018223</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018223</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018223</v>
+        <v>1600.226746651594</v>
       </c>
       <c r="X44" t="n">
-        <v>2323.683332757143</v>
+        <v>1600.226746651594</v>
       </c>
       <c r="Y44" t="n">
-        <v>1933.544000781331</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7810,34 +7810,34 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U46" t="n">
-        <v>598.044640063212</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V46" t="n">
         <v>343.3601518573251</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747115</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,10 +8298,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9726,7 +9726,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9969,7 +9969,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10206,10 +10206,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47.41997957426287</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>260.7615551004096</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22565,7 +22565,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890122</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22747,10 +22747,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491427</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -22781,7 +22781,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47.41997957426332</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22790,19 +22790,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,22 +22832,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>30.22198880999349</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22942,28 +22942,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>97.12753845258948</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,7 +22987,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -22996,13 +22996,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23018,28 +23018,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>371.3427523386205</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>116.2199130299139</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,19 +23069,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23176,31 +23176,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>3.115350019202168</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23224,7 +23224,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>133.6808629223864</v>
       </c>
       <c r="H11" t="n">
-        <v>220.0750986383708</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23312,16 +23312,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>106.8644646478153</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,10 +23434,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>82.85718120047574</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -23498,16 +23498,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>144.270713072711</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23653,16 +23653,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>106.8644646478153</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,10 +23671,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>82.85718120047574</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>74.74425144011354</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23795,7 +23795,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23911,7 +23911,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>96.01048066168073</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,16 +23966,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>346.9539485771473</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24017,19 +24017,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>321.0995824603834</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24148,7 +24148,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>83.12091415361547</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>96.01048066168096</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24209,16 +24209,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>85.16958467259889</v>
       </c>
       <c r="G23" t="n">
-        <v>89.79231049789928</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24385,7 +24385,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>96.01048066168096</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551401</v>
       </c>
     </row>
     <row r="26">
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>144.270713072711</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24494,13 +24494,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>323.1984001294967</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24622,7 +24622,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24655,7 +24655,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>157.4983735401879</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724728</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24680,22 +24680,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24734,16 +24734,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>30.22198880999329</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>294.9937703567476</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>131.0862127585215</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,13 +24853,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>96.37730894044057</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24895,7 +24895,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -25075,10 +25075,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,16 +25087,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>106.8644646478152</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>142.1113494150897</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25154,7 +25154,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25166,13 +25166,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>360.7190334303688</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>200.37350773611</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,13 +25199,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
@@ -25333,7 +25333,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,25 +25357,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>142.1113494150891</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>96.01048066168073</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25391,7 +25391,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25400,10 +25400,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>133.6808629223864</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25457,7 +25457,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>92.07770895168238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25570,7 +25570,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25603,7 +25603,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>96.92615468724685</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>89.79231049789928</v>
+        <v>144.2707130727115</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25807,7 +25807,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,22 +25831,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168084</v>
       </c>
       <c r="U43" t="n">
-        <v>157.4983735401875</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,25 +25862,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>89.79231049789928</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25910,25 +25910,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>113.1909967053447</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26044,7 +26044,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26077,10 +26077,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>157.4983735401875</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.525039394</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.525039394</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.525039394</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>289152.6100157576</v>
       </c>
       <c r="C2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="D2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157573</v>
       </c>
       <c r="E2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="F2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="G2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157577</v>
       </c>
       <c r="H2" t="n">
-        <v>289152.6100157573</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="I2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="J2" t="n">
-        <v>289152.6100157577</v>
+        <v>289152.6100157572</v>
       </c>
       <c r="K2" t="n">
+        <v>289152.6100157574</v>
+      </c>
+      <c r="L2" t="n">
+        <v>289152.6100157578</v>
+      </c>
+      <c r="M2" t="n">
+        <v>289152.6100157574</v>
+      </c>
+      <c r="N2" t="n">
+        <v>289152.6100157574</v>
+      </c>
+      <c r="O2" t="n">
         <v>289152.6100157576</v>
       </c>
-      <c r="L2" t="n">
-        <v>289152.6100157577</v>
-      </c>
-      <c r="M2" t="n">
-        <v>289152.6100157576</v>
-      </c>
-      <c r="N2" t="n">
-        <v>289152.6100157576</v>
-      </c>
-      <c r="O2" t="n">
-        <v>289152.6100157575</v>
-      </c>
       <c r="P2" t="n">
-        <v>289152.6100157577</v>
+        <v>289152.6100157574</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145448</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="C4" t="n">
         <v>513.1084990597035</v>
       </c>
       <c r="D4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="E4" t="n">
         <v>513.1084990597035</v>
@@ -26433,31 +26433,31 @@
         <v>513.1084990597035</v>
       </c>
       <c r="H4" t="n">
+        <v>513.1084990597036</v>
+      </c>
+      <c r="I4" t="n">
         <v>513.1084990597035</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>513.1084990597035</v>
+      </c>
+      <c r="K4" t="n">
         <v>513.1084990597036</v>
-      </c>
-      <c r="J4" t="n">
-        <v>513.1084990597036</v>
-      </c>
-      <c r="K4" t="n">
-        <v>513.1084990597035</v>
       </c>
       <c r="L4" t="n">
         <v>513.1084990597036</v>
       </c>
       <c r="M4" t="n">
+        <v>513.1084990597035</v>
+      </c>
+      <c r="N4" t="n">
+        <v>513.1084990597035</v>
+      </c>
+      <c r="O4" t="n">
         <v>513.1084990597036</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>513.1084990597036</v>
-      </c>
-      <c r="O4" t="n">
-        <v>513.1084990597035</v>
-      </c>
-      <c r="P4" t="n">
-        <v>513.1084990597035</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,25 +26476,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340947</v>
@@ -26519,13 +26519,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-384187.4557612564</v>
+        <v>-384187.455761256</v>
       </c>
       <c r="C6" t="n">
-        <v>205780.4234532883</v>
+        <v>205780.4234532884</v>
       </c>
       <c r="D6" t="n">
-        <v>205780.4234532884</v>
+        <v>205780.4234532882</v>
       </c>
       <c r="E6" t="n">
         <v>239408.0234532884</v>
@@ -26537,31 +26537,31 @@
         <v>239408.0234532885</v>
       </c>
       <c r="H6" t="n">
-        <v>239408.0234532882</v>
+        <v>239408.0234532883</v>
       </c>
       <c r="I6" t="n">
         <v>239408.0234532884</v>
       </c>
       <c r="J6" t="n">
-        <v>62984.80426069552</v>
+        <v>62984.80426069512</v>
       </c>
       <c r="K6" t="n">
-        <v>239408.0234532884</v>
+        <v>239408.0234532883</v>
       </c>
       <c r="L6" t="n">
         <v>239408.0234532886</v>
       </c>
       <c r="M6" t="n">
+        <v>239408.0234532882</v>
+      </c>
+      <c r="N6" t="n">
+        <v>239408.0234532883</v>
+      </c>
+      <c r="O6" t="n">
         <v>239408.0234532884</v>
       </c>
-      <c r="N6" t="n">
-        <v>239408.0234532884</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>239408.0234532883</v>
-      </c>
-      <c r="P6" t="n">
-        <v>239408.0234532885</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26750,34 +26750,34 @@
         <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26796,25 +26796,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545557</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736702</v>
+        <v>195.5988322391985</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639066</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31218,28 +31218,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,19 +31592,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653236</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,13 +31750,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31774,22 +31774,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,28 +31829,28 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942361</v>
       </c>
       <c r="M12" t="n">
         <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
         <v>193.3156655923047</v>
@@ -31862,16 +31862,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,13 +31932,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31947,7 +31947,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31987,13 +31987,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32011,22 +32011,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,19 +32066,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
-        <v>115.481539230439</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
         <v>176.4169820478007</v>
@@ -32090,7 +32090,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>177.5954266578339</v>
       </c>
       <c r="P15" t="n">
         <v>155.1528646479577</v>
@@ -32099,16 +32099,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,13 +32169,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32184,7 +32184,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32230,19 +32230,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32257,13 +32257,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32303,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32324,28 +32324,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O18" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>111.7343803072865</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,16 +32382,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32406,16 +32406,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32467,19 +32467,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727438</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32494,13 +32494,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,19 +32540,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649102</v>
+        <v>115.4815392304395</v>
       </c>
       <c r="L21" t="n">
         <v>176.4169820478007</v>
@@ -32567,22 +32567,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32619,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32643,16 +32643,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32704,19 +32704,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32731,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32795,7 +32795,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M24" t="n">
-        <v>86.43447689993485</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N24" t="n">
         <v>211.31907117367</v>
@@ -32804,22 +32804,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32856,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32880,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32941,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32968,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33041,22 +33041,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33093,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33117,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33178,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33205,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33278,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33330,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33354,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33415,19 +33415,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33442,13 +33442,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33515,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33567,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33591,16 +33591,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33652,19 +33652,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727438</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33676,16 +33676,16 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33752,22 +33752,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33804,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33828,16 +33828,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33889,19 +33889,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33916,13 +33916,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,22 +33962,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
-        <v>11.76595806653279</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L39" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942361</v>
       </c>
       <c r="M39" t="n">
         <v>205.8702969983122</v>
@@ -33989,22 +33989,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34041,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34065,16 +34065,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34126,19 +34126,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34153,13 +34153,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34226,22 +34226,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>111.7343803072874</v>
       </c>
       <c r="Q42" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34278,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34302,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34363,19 +34363,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34390,13 +34390,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,19 +34436,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
-        <v>87.78329382423973</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L45" t="n">
         <v>176.4169820478007</v>
@@ -34463,22 +34463,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,16 +34515,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34539,16 +34539,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338904</v>
+        <v>543.5994944994187</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,10 +34857,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
         <v>146.3614835535656</v>
@@ -34869,10 +34869,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35422,10 +35422,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M12" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35583,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35659,10 +35659,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
-        <v>242.1053372686586</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35738,7 +35738,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>428.8615014901189</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35820,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35972,13 +35972,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181313</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>242.1053372686591</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36209,16 +36209,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535621</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36443,16 +36443,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36683,13 +36683,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36920,16 +36920,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343422</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M33" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181313</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37324,7 +37324,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37394,16 +37394,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37868,16 +37868,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181313</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38105,16 +38105,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1238791.943495761</v>
+        <v>1267636.254250488</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>96679.21610331273</v>
+        <v>81083.00515982791</v>
       </c>
     </row>
     <row r="8">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>104.5113366705979</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -674,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>15.69865790865241</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250842</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -795,7 +797,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755638</v>
+        <v>18.37682225755684</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -835,10 +837,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>67.42541154680168</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>339.5091118684755</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,7 +1028,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
         <v>225.8879277888686</v>
@@ -1054,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,13 +1071,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>37.83808333974875</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>17.13267830033018</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>123.5492650282466</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>297.5642569908811</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1260,7 +1262,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T9" t="n">
         <v>196.8897623984489</v>
@@ -1288,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>153.055538822593</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,10 +1381,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>280.1033070984085</v>
+        <v>321.7064610691122</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1461,7 +1463,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H12" t="n">
         <v>104.3883541553076</v>
@@ -1528,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>41.75100837039711</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>62.56386682245563</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>269.513456948084</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1765,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>41.75100837039711</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.56386682245563</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
@@ -1844,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>323.9918595228954</v>
+        <v>280.1033070984082</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1889,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -2053,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>94.63926978364034</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,22 +2083,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>6.652676009751512</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.59830597394826</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>129.0246247964034</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2318,19 +2320,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>275.4805812731078</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>321.7064610691125</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2530,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>155.2114886365808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,19 +2557,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>26.94389492651078</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>4.55385834063818</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2767,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="X28" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>368.0745826192873</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2846,13 +2848,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>221.002178698296</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2950,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>17.5292602596909</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>43.99240337009272</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3038,10 +3040,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>323.9918595228957</v>
+        <v>327.1485339723819</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3089,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3126,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>43.31785343913925</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.553842565068125</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>275.4805812731078</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3281,10 +3283,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>123.5492650282471</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3430,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>60.92600812502351</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3466,16 +3468,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
-        <v>4.553842565068801</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,10 +3505,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>280.1033070984085</v>
+        <v>269.5134569480831</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3600,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3715,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>128.7835007017899</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978363978</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3743,16 +3745,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>269.5134569480835</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3797,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>26.94389492651078</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>129.0246247964034</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3992,7 +3994,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>46.58646588932444</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>236.0499720120683</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4189,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="V46" t="n">
-        <v>94.6392697836404</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.5099885583422</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="C2" t="n">
-        <v>53.94298182036445</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="D2" t="n">
-        <v>53.94298182036445</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="E2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4358,10 +4360,10 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
         <v>1662.48357412947</v>
@@ -4370,10 +4372,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>920.3919303875161</v>
       </c>
     </row>
     <row r="3">
@@ -4383,61 +4385,61 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M3" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1851.37379586972</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2291.509718890064</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2627.754532504893</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
@@ -4452,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816298</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837194</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220518</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1268.68094731003</v>
+        <v>576.3714747656866</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2629.042614708322</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2410.407947680385</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2410.407947680385</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2079.345060336814</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.358616186807</v>
+        <v>1726.5764050667</v>
       </c>
       <c r="X5" t="n">
-        <v>2045.420119349963</v>
+        <v>1353.11064680562</v>
       </c>
       <c r="Y5" t="n">
-        <v>1655.280787374151</v>
+        <v>962.9713148298083</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4653,25 +4655,25 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
         <v>2289.884200196743</v>
@@ -4689,7 +4691,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785273</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661916</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837985</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="F7" t="n">
-        <v>261.1630682837985</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>92.16326802213086</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>92.16326802213086</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>710.8232485495353</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>562.6765899837193</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1878.515311311824</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C8" t="n">
-        <v>1509.552794371412</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D8" t="n">
-        <v>1151.287095764662</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>765.4988431664176</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>354.51293837681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.515311311824</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4884,19 +4886,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4905,19 +4907,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482876</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>377.5443364482876</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E10" t="n">
-        <v>377.5443364482876</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F10" t="n">
-        <v>377.5443364482876</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G10" t="n">
-        <v>208.54453618662</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1491.915471247703</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C11" t="n">
-        <v>1491.915471247703</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D11" t="n">
-        <v>1133.649772640952</v>
+        <v>764.6872557005402</v>
       </c>
       <c r="E11" t="n">
-        <v>747.861520042708</v>
+        <v>378.8990031022959</v>
       </c>
       <c r="F11" t="n">
-        <v>336.8756152531004</v>
+        <v>378.8990031022959</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5057,10 +5059,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
         <v>2642.120401548716</v>
@@ -5094,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424006</v>
@@ -5115,7 +5117,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
@@ -5124,10 +5126,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
         <v>1748.695370517453</v>
@@ -5139,22 +5141,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C13" t="n">
-        <v>559.1928012785274</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D13" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E13" t="n">
-        <v>517.0200655508536</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F13" t="n">
         <v>517.0200655508536</v>
@@ -5194,10 +5196,10 @@
         <v>190.2718927217162</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5206,43 +5208,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1491.915471247703</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C14" t="n">
         <v>1122.952954307291</v>
@@ -5261,43 +5263,43 @@
         <v>1122.952954307291</v>
       </c>
       <c r="E14" t="n">
-        <v>737.1647017090468</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F14" t="n">
-        <v>326.1787969194392</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
         <v>2642.120401548716</v>
@@ -5352,7 +5354,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
@@ -5367,13 +5369,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2291.509718890065</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C16" t="n">
-        <v>559.1928012785274</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D16" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E16" t="n">
-        <v>517.0200655508536</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F16" t="n">
         <v>517.0200655508536</v>
@@ -5431,10 +5433,10 @@
         <v>190.2718927217162</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5443,43 +5445,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1546.944160717209</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C17" t="n">
-        <v>1177.981643776797</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="D17" t="n">
-        <v>1177.981643776797</v>
+        <v>1133.649772640952</v>
       </c>
       <c r="E17" t="n">
-        <v>792.1933911785532</v>
+        <v>747.8615200427075</v>
       </c>
       <c r="F17" t="n">
-        <v>381.2074863889456</v>
+        <v>336.8756152531</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036445</v>
@@ -5513,19 +5515,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5537,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X17" t="n">
-        <v>2323.683332757143</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y17" t="n">
-        <v>1933.544000781331</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="18">
@@ -5568,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
         <v>1748.695370517453</v>
@@ -5613,28 +5615,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5701,13 +5703,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>632.5337622027571</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U19" t="n">
-        <v>343.360151857325</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W19" t="n">
         <v>53.94298182036445</v>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1210.087414675782</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C20" t="n">
-        <v>1210.087414675782</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D20" t="n">
-        <v>1210.087414675782</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E20" t="n">
-        <v>1210.087414675782</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F20" t="n">
-        <v>799.1015098861748</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>1993.546461473041</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>1986.826586715716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>1986.826586715716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
-        <v>1986.826586715716</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y20" t="n">
-        <v>1596.687254739904</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>368.8844281164668</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>773.5003462121387</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1297.64725977017</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1851.373795869721</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2291.509718890065</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036446</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036446</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036446</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036446</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036446</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036446</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K22" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N22" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064343</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="S22" t="n">
-        <v>597.8010803716834</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="T22" t="n">
-        <v>597.8010803716834</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="U22" t="n">
-        <v>308.6274700262513</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="V22" t="n">
-        <v>53.94298182036446</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036446</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036446</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036446</v>
+        <v>2107.405821939171</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1491.915471247703</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C23" t="n">
-        <v>1122.952954307291</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D23" t="n">
-        <v>764.6872557005406</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
-        <v>378.8990031022964</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>1878.515311311824</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6065,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6151,43 +6153,43 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018223</v>
+        <v>2567.064746875</v>
       </c>
       <c r="V25" t="n">
-        <v>2697.149091018223</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W25" t="n">
-        <v>2407.731920981262</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X25" t="n">
-        <v>2179.742370083245</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y25" t="n">
         <v>2022.963088632153</v>
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1268.68094731003</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C26" t="n">
-        <v>1268.68094731003</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.68094731003</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036445</v>
@@ -6224,13 +6226,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6248,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="T26" t="n">
-        <v>2423.485734520778</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="U26" t="n">
-        <v>2423.485734520778</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="V26" t="n">
-        <v>2418.885877611043</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="W26" t="n">
-        <v>2418.885877611043</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X26" t="n">
-        <v>2045.420119349963</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y26" t="n">
-        <v>1655.280787374151</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="27">
@@ -6312,13 +6314,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
         <v>2525.076107152626</v>
@@ -6415,13 +6417,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U28" t="n">
-        <v>2697.149091018222</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="V28" t="n">
-        <v>2442.464602812336</v>
+        <v>2153.290992466904</v>
       </c>
       <c r="W28" t="n">
-        <v>2153.047432775375</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X28" t="n">
         <v>2022.963088632153</v>
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1268.68094731003</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="C29" t="n">
-        <v>1268.68094731003</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.68094731003</v>
+        <v>1222.509646904466</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117852</v>
+        <v>836.7213943062218</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>425.7354895166142</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036445</v>
@@ -6467,7 +6469,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6485,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2418.885877611043</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>2418.885877611043</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W29" t="n">
-        <v>2418.885877611043</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X29" t="n">
-        <v>2045.420119349963</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y29" t="n">
-        <v>1655.280787374151</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="30">
@@ -6516,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036422</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.200144220494</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>398.3338608103785</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>229.3976778824716</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
         <v>53.94298182036445</v>
@@ -6643,28 +6645,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>579.9823256406182</v>
+        <v>683.6922131255325</v>
       </c>
       <c r="S31" t="n">
-        <v>579.9823256406182</v>
+        <v>683.6922131255325</v>
       </c>
       <c r="T31" t="n">
-        <v>579.9823256406182</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="U31" t="n">
-        <v>579.9823256406182</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V31" t="n">
-        <v>579.9823256406182</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W31" t="n">
-        <v>579.9823256406182</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X31" t="n">
-        <v>579.9823256406182</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y31" t="n">
-        <v>579.9823256406182</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1546.94416071721</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C32" t="n">
-        <v>1177.981643776798</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="D32" t="n">
-        <v>1177.981643776798</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="E32" t="n">
-        <v>792.1933911785536</v>
+        <v>384.396046438932</v>
       </c>
       <c r="F32" t="n">
-        <v>381.2074863889461</v>
+        <v>384.396046438932</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018223</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X32" t="n">
-        <v>2323.683332757143</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y32" t="n">
-        <v>1933.544000781331</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="33">
@@ -6774,19 +6776,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6832,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>2066.718496146435</v>
       </c>
       <c r="C34" t="n">
         <v>2022.963088632153</v>
@@ -6862,46 +6864,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>2692.549250043407</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S34" t="n">
-        <v>2478.260826861569</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T34" t="n">
-        <v>2250.952639530171</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U34" t="n">
-        <v>2250.952639530171</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V34" t="n">
-        <v>2250.952639530171</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W34" t="n">
-        <v>2250.952639530171</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>2469.159540120205</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>2248.366960976675</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1546.94416071721</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C35" t="n">
-        <v>1546.94416071721</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D35" t="n">
-        <v>1546.94416071721</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E35" t="n">
-        <v>1161.155908118965</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>750.1700033293578</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>332.2061952275446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6953,28 +6955,28 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X35" t="n">
         <v>2323.683332757143</v>
@@ -6990,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036446</v>
+        <v>2084.504510980662</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036446</v>
+        <v>2084.504510980662</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036446</v>
+        <v>2084.504510980662</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N37" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064343</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="R37" t="n">
-        <v>723.5291432316174</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="S37" t="n">
-        <v>509.2407200497801</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="T37" t="n">
-        <v>281.9325327183818</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="U37" t="n">
-        <v>281.9325327183818</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="V37" t="n">
-        <v>281.9325327183818</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="W37" t="n">
-        <v>281.9325327183818</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036446</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036446</v>
+        <v>2084.504510980662</v>
       </c>
     </row>
     <row r="38">
@@ -7148,73 +7150,73 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1491.915471247703</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C38" t="n">
-        <v>1491.915471247703</v>
+        <v>1122.95295430729</v>
       </c>
       <c r="D38" t="n">
-        <v>1133.649772640952</v>
+        <v>1122.95295430729</v>
       </c>
       <c r="E38" t="n">
-        <v>747.861520042708</v>
+        <v>737.1647017090459</v>
       </c>
       <c r="F38" t="n">
-        <v>336.8756152531004</v>
+        <v>326.1787969194383</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V38" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W38" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X38" t="n">
-        <v>2268.654643287636</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y38" t="n">
         <v>1878.515311311824</v>
@@ -7248,7 +7250,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="C40" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="D40" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>2079.26528169842</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U40" t="n">
-        <v>2567.064746875001</v>
+        <v>2407.97548067279</v>
       </c>
       <c r="V40" t="n">
-        <v>2312.380258669114</v>
+        <v>2312.380258669113</v>
       </c>
       <c r="W40" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="X40" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="Y40" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1491.915471247702</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C41" t="n">
-        <v>1122.952954307291</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D41" t="n">
-        <v>1122.952954307291</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E41" t="n">
-        <v>737.1647017090463</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F41" t="n">
-        <v>326.1787969194388</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7433,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548716</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548716</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.654643287636</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y41" t="n">
-        <v>1878.515311311824</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="42">
@@ -7464,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
         <v>2525.076107152626</v>
@@ -7533,7 +7535,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7576,25 +7578,25 @@
         <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
         <v>597.8010803716834</v>
@@ -7603,16 +7605,16 @@
         <v>308.6274700262513</v>
       </c>
       <c r="V43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1210.087414675782</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C44" t="n">
-        <v>1210.087414675782</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D44" t="n">
-        <v>1210.087414675782</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E44" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520779</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U44" t="n">
-        <v>2169.72394915887</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="V44" t="n">
-        <v>1838.661061815299</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W44" t="n">
-        <v>1600.226746651594</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X44" t="n">
-        <v>1600.226746651594</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y44" t="n">
-        <v>1210.087414675782</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7724,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
@@ -7743,7 +7745,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K46" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U46" t="n">
-        <v>438.9553738610023</v>
+        <v>2567.064746875</v>
       </c>
       <c r="V46" t="n">
-        <v>343.3601518573251</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9419,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9726,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9969,7 +9971,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10206,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11391,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>260.7615551004096</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22562,10 +22564,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22613,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>370.5392807474012</v>
       </c>
     </row>
     <row r="3">
@@ -22711,7 +22713,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890128</v>
+        <v>128.0571403890123</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22747,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -22784,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,25 +22831,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>106.9903012621698</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>30.22198880999349</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22942,13 +22944,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -22957,13 +22959,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>97.12753845258948</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>11.99007165458412</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.723626742761</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23033,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>116.2199130299139</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -23176,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>3.115350019202168</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23224,7 +23226,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23258,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>133.6808629223864</v>
+        <v>92.07770895168284</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
@@ -23416,16 +23418,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>106.8644646478153</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>82.85718120047562</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23507,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>144.270713072711</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23653,16 +23655,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>106.8644646478153</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>82.85718120047562</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23732,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>89.79231049789962</v>
+        <v>133.6808629223868</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23777,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23941,16 +23943,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3958356744439</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23969,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24014,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>321.0995824603834</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>72.57258286784689</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923382</v>
@@ -24172,19 +24174,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>83.12091415361547</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24206,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>89.79231049789979</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>85.16958467259889</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24382,10 +24384,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24418,19 +24420,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>63.37316471551401</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24443,19 +24445,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24488,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>27.53450764830094</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>323.1984001294967</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24619,10 +24621,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24655,16 +24657,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="X28" t="n">
-        <v>96.92615468724728</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>45.70958740150769</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24734,13 +24736,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>30.22198880999329</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24838,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>131.0862127585215</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,13 +24855,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,16 +24882,16 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>102.6727886100651</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -24904,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24926,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>89.79231049789928</v>
+        <v>86.63563604841306</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24977,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9289676594886</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25093,10 +25095,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,16 +25119,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
-        <v>142.1113494150897</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25154,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>89.79231049789979</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25169,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>200.37350773611</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25318,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>85.50795452154566</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,16 +25356,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>142.1113494150891</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25375,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25391,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25403,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>133.6808629223864</v>
+        <v>144.2707130727119</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25567,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25603,10 +25605,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>157.4983735401879</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>157.4983735401882</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25631,16 +25633,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>144.2707130727115</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25685,10 +25687,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>300.8083635436241</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25804,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25837,7 +25839,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>96.01048066168084</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25871,7 +25873,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>204.6377016189649</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>113.1909967053447</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26041,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26077,10 +26079,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="V46" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>722881.525039394</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.525039394</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.525039394</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.525039394</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>722881.525039394</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>722881.525039394</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>289152.6100157576</v>
       </c>
       <c r="C2" t="n">
+        <v>289152.6100157576</v>
+      </c>
+      <c r="D2" t="n">
         <v>289152.6100157575</v>
-      </c>
-      <c r="D2" t="n">
-        <v>289152.6100157573</v>
       </c>
       <c r="E2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="F2" t="n">
+        <v>289152.6100157577</v>
+      </c>
+      <c r="G2" t="n">
         <v>289152.6100157576</v>
       </c>
-      <c r="G2" t="n">
-        <v>289152.6100157577</v>
-      </c>
       <c r="H2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="I2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="J2" t="n">
-        <v>289152.6100157572</v>
+        <v>289152.6100157577</v>
       </c>
       <c r="K2" t="n">
         <v>289152.6100157574</v>
       </c>
       <c r="L2" t="n">
-        <v>289152.6100157578</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="M2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="N2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="O2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="P2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157573</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145447</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="C4" t="n">
         <v>513.1084990597035</v>
       </c>
       <c r="D4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="E4" t="n">
         <v>513.1084990597035</v>
@@ -26433,7 +26435,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="H4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="I4" t="n">
         <v>513.1084990597035</v>
@@ -26442,10 +26444,10 @@
         <v>513.1084990597035</v>
       </c>
       <c r="K4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="L4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="M4" t="n">
         <v>513.1084990597035</v>
@@ -26454,10 +26456,10 @@
         <v>513.1084990597035</v>
       </c>
       <c r="O4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="P4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
@@ -26497,19 +26499,19 @@
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-384187.455761256</v>
+        <v>-384187.4557612563</v>
       </c>
       <c r="C6" t="n">
         <v>205780.4234532884</v>
       </c>
       <c r="D6" t="n">
-        <v>205780.4234532882</v>
+        <v>205780.4234532884</v>
       </c>
       <c r="E6" t="n">
         <v>239408.0234532884</v>
       </c>
       <c r="F6" t="n">
+        <v>239408.0234532886</v>
+      </c>
+      <c r="G6" t="n">
         <v>239408.0234532884</v>
       </c>
-      <c r="G6" t="n">
-        <v>239408.0234532885</v>
-      </c>
       <c r="H6" t="n">
-        <v>239408.0234532883</v>
+        <v>239408.0234532884</v>
       </c>
       <c r="I6" t="n">
         <v>239408.0234532884</v>
       </c>
       <c r="J6" t="n">
-        <v>62984.80426069512</v>
+        <v>62984.80426069553</v>
       </c>
       <c r="K6" t="n">
-        <v>239408.0234532883</v>
+        <v>239408.0234532882</v>
       </c>
       <c r="L6" t="n">
-        <v>239408.0234532886</v>
+        <v>239408.0234532884</v>
       </c>
       <c r="M6" t="n">
+        <v>239408.0234532885</v>
+      </c>
+      <c r="N6" t="n">
+        <v>239408.0234532884</v>
+      </c>
+      <c r="O6" t="n">
+        <v>239408.0234532885</v>
+      </c>
+      <c r="P6" t="n">
         <v>239408.0234532882</v>
-      </c>
-      <c r="N6" t="n">
-        <v>239408.0234532883</v>
-      </c>
-      <c r="O6" t="n">
-        <v>239408.0234532884</v>
-      </c>
-      <c r="P6" t="n">
-        <v>239408.0234532883</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26787,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -26817,19 +26819,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>195.5988322391985</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,25 +31223,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,19 +31594,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653236</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31844,13 +31846,13 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>56.98116194942361</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
         <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O12" t="n">
         <v>193.3156655923047</v>
@@ -32087,16 +32089,16 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O15" t="n">
-        <v>177.5954266578339</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
         <v>50.44659727034982</v>
@@ -32321,10 +32323,10 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576419</v>
       </c>
       <c r="N18" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
         <v>193.3156655923047</v>
@@ -32470,7 +32472,7 @@
         <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
-        <v>128.8865178727438</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
         <v>193.1674799081577</v>
@@ -32552,7 +32554,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
-        <v>115.4815392304395</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L21" t="n">
         <v>176.4169820478007</v>
@@ -32561,7 +32563,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N21" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O21" t="n">
         <v>193.3156655923047</v>
@@ -32570,7 +32572,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
         <v>50.44659727034982</v>
@@ -32698,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32722,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32807,19 +32809,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32880,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32895,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32935,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32959,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33032,7 +33034,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M27" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993508</v>
       </c>
       <c r="N27" t="n">
         <v>211.31907117367</v>
@@ -33047,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33117,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33132,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33172,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33196,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33284,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33354,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33369,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33409,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33433,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33509,7 +33511,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N33" t="n">
-        <v>211.31907117367</v>
+        <v>167.9005868329995</v>
       </c>
       <c r="O33" t="n">
         <v>193.3156655923047</v>
@@ -33521,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33606,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
-        <v>128.8865178727438</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
         <v>193.1674799081577</v>
@@ -33670,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33758,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33843,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33883,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33907,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33995,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34080,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34120,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34144,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653305</v>
       </c>
       <c r="L42" t="n">
         <v>176.4169820478007</v>
@@ -34226,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>111.7343803072874</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34317,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34381,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34469,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34554,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
-        <v>543.5994944994187</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34869,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35023,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35492,13 +35494,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
@@ -35735,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O15" t="n">
-        <v>428.8615014901189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35969,10 +35971,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N18" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36139,7 +36141,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
-        <v>242.1053372686591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36209,7 +36211,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
@@ -36218,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36370,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36446,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36531,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36607,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36680,16 +36682,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N27" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P27" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36753,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36768,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36844,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36923,13 +36925,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P30" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37005,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343422</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
         <v>421.5361394435301</v>
@@ -37081,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37145,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
@@ -37227,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37242,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37318,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M36" t="n">
         <v>529.4413268262938</v>
@@ -37397,13 +37399,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37555,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37634,7 +37636,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
@@ -37701,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37792,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37871,10 +37873,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -37938,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38029,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38108,13 +38110,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
